--- a/Financials/Quarterly/CEA_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CEA_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D32B9-F89C-4135-B420-C110B06F49C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEA" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,94 +750,94 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7925900</v>
+        <v>8088300</v>
       </c>
       <c r="E8" s="3">
-        <v>7860800</v>
+        <v>8021900</v>
       </c>
       <c r="F8" s="3">
-        <v>7042200</v>
+        <v>7186500</v>
       </c>
       <c r="G8" s="3">
-        <v>7645100</v>
+        <v>7801800</v>
       </c>
       <c r="H8" s="3">
-        <v>6738500</v>
+        <v>6876600</v>
       </c>
       <c r="I8" s="3">
-        <v>7213000</v>
+        <v>7360800</v>
       </c>
       <c r="J8" s="3">
-        <v>6452900</v>
+        <v>6585100</v>
       </c>
       <c r="K8" s="3">
         <v>6848400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5402000</v>
+        <v>5512700</v>
       </c>
       <c r="E9" s="3">
-        <v>5435900</v>
+        <v>5547300</v>
       </c>
       <c r="F9" s="3">
-        <v>4800800</v>
+        <v>4899200</v>
       </c>
       <c r="G9" s="3">
-        <v>4949000</v>
+        <v>5050400</v>
       </c>
       <c r="H9" s="3">
-        <v>4202900</v>
+        <v>4289000</v>
       </c>
       <c r="I9" s="3">
-        <v>4472300</v>
+        <v>4563900</v>
       </c>
       <c r="J9" s="3">
-        <v>4235200</v>
+        <v>4322000</v>
       </c>
       <c r="K9" s="3">
         <v>4455800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2523900</v>
+        <v>2575700</v>
       </c>
       <c r="E10" s="3">
-        <v>2424900</v>
+        <v>2474600</v>
       </c>
       <c r="F10" s="3">
-        <v>2241400</v>
+        <v>2287300</v>
       </c>
       <c r="G10" s="3">
-        <v>2696100</v>
+        <v>2751400</v>
       </c>
       <c r="H10" s="3">
-        <v>2535600</v>
+        <v>2587500</v>
       </c>
       <c r="I10" s="3">
-        <v>2740800</v>
+        <v>2796900</v>
       </c>
       <c r="J10" s="3">
-        <v>2217700</v>
+        <v>2263100</v>
       </c>
       <c r="K10" s="3">
         <v>2392600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +850,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,10 +919,10 @@
         <v>-700</v>
       </c>
       <c r="F14" s="3">
-        <v>-256800</v>
+        <v>-262100</v>
       </c>
       <c r="G14" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H14" s="3">
         <v>-400</v>
@@ -902,36 +937,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1095700</v>
+        <v>1118100</v>
       </c>
       <c r="E15" s="3">
-        <v>1079400</v>
+        <v>1101500</v>
       </c>
       <c r="F15" s="3">
-        <v>952100</v>
+        <v>971600</v>
       </c>
       <c r="G15" s="3">
-        <v>923900</v>
+        <v>942800</v>
       </c>
       <c r="H15" s="3">
-        <v>843600</v>
+        <v>860900</v>
       </c>
       <c r="I15" s="3">
-        <v>794000</v>
+        <v>810300</v>
       </c>
       <c r="J15" s="3">
-        <v>728700</v>
+        <v>743700</v>
       </c>
       <c r="K15" s="3">
         <v>688500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,65 +976,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7133900</v>
+        <v>7280100</v>
       </c>
       <c r="E17" s="3">
-        <v>7409800</v>
+        <v>7561600</v>
       </c>
       <c r="F17" s="3">
-        <v>6121600</v>
+        <v>6247000</v>
       </c>
       <c r="G17" s="3">
-        <v>6870300</v>
+        <v>7011000</v>
       </c>
       <c r="H17" s="3">
-        <v>5697500</v>
+        <v>5814300</v>
       </c>
       <c r="I17" s="3">
-        <v>6209700</v>
+        <v>6337000</v>
       </c>
       <c r="J17" s="3">
-        <v>5620100</v>
+        <v>5735300</v>
       </c>
       <c r="K17" s="3">
         <v>6200400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>792000</v>
+        <v>808200</v>
       </c>
       <c r="E18" s="3">
-        <v>451000</v>
+        <v>460200</v>
       </c>
       <c r="F18" s="3">
-        <v>920600</v>
+        <v>939400</v>
       </c>
       <c r="G18" s="3">
-        <v>774900</v>
+        <v>790700</v>
       </c>
       <c r="H18" s="3">
-        <v>1041000</v>
+        <v>1062300</v>
       </c>
       <c r="I18" s="3">
-        <v>1003300</v>
+        <v>1023900</v>
       </c>
       <c r="J18" s="3">
-        <v>832700</v>
+        <v>849800</v>
       </c>
       <c r="K18" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,152 +1047,152 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-65600</v>
+        <v>-66900</v>
       </c>
       <c r="E20" s="3">
-        <v>220500</v>
+        <v>225000</v>
       </c>
       <c r="F20" s="3">
-        <v>123200</v>
+        <v>125700</v>
       </c>
       <c r="G20" s="3">
-        <v>-300300</v>
+        <v>-306500</v>
       </c>
       <c r="H20" s="3">
-        <v>-178200</v>
+        <v>-181800</v>
       </c>
       <c r="I20" s="3">
-        <v>-703200</v>
+        <v>-717600</v>
       </c>
       <c r="J20" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="K20" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1787200</v>
+        <v>1823800</v>
       </c>
       <c r="E21" s="3">
-        <v>1748100</v>
+        <v>1783900</v>
       </c>
       <c r="F21" s="3">
-        <v>1992100</v>
+        <v>2032900</v>
       </c>
       <c r="G21" s="3">
-        <v>1450700</v>
+        <v>1480400</v>
       </c>
       <c r="H21" s="3">
-        <v>1702400</v>
+        <v>1737300</v>
       </c>
       <c r="I21" s="3">
-        <v>1141900</v>
+        <v>1165300</v>
       </c>
       <c r="J21" s="3">
-        <v>1579200</v>
+        <v>1611600</v>
       </c>
       <c r="K21" s="3">
         <v>1319600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>265800</v>
+        <v>271300</v>
       </c>
       <c r="E22" s="3">
-        <v>258900</v>
+        <v>264200</v>
       </c>
       <c r="F22" s="3">
-        <v>204200</v>
+        <v>208400</v>
       </c>
       <c r="G22" s="3">
-        <v>194400</v>
+        <v>198400</v>
       </c>
       <c r="H22" s="3">
-        <v>198100</v>
+        <v>202100</v>
       </c>
       <c r="I22" s="3">
-        <v>157800</v>
+        <v>161000</v>
       </c>
       <c r="J22" s="3">
-        <v>168700</v>
+        <v>172200</v>
       </c>
       <c r="K22" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>460600</v>
+        <v>470000</v>
       </c>
       <c r="E23" s="3">
-        <v>412600</v>
+        <v>421000</v>
       </c>
       <c r="F23" s="3">
-        <v>839600</v>
+        <v>856800</v>
       </c>
       <c r="G23" s="3">
-        <v>280100</v>
+        <v>285800</v>
       </c>
       <c r="H23" s="3">
-        <v>664800</v>
+        <v>678400</v>
       </c>
       <c r="I23" s="3">
-        <v>142400</v>
+        <v>145300</v>
       </c>
       <c r="J23" s="3">
-        <v>681800</v>
+        <v>695700</v>
       </c>
       <c r="K23" s="3">
         <v>568600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96700</v>
+        <v>98700</v>
       </c>
       <c r="E24" s="3">
-        <v>94200</v>
+        <v>96200</v>
       </c>
       <c r="F24" s="3">
-        <v>167500</v>
+        <v>171000</v>
       </c>
       <c r="G24" s="3">
-        <v>72900</v>
+        <v>74400</v>
       </c>
       <c r="H24" s="3">
-        <v>151400</v>
+        <v>154500</v>
       </c>
       <c r="I24" s="3">
-        <v>-30100</v>
+        <v>-30700</v>
       </c>
       <c r="J24" s="3">
-        <v>120900</v>
+        <v>123300</v>
       </c>
       <c r="K24" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,65 +1221,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>363900</v>
+        <v>371300</v>
       </c>
       <c r="E26" s="3">
-        <v>318300</v>
+        <v>324900</v>
       </c>
       <c r="F26" s="3">
-        <v>672000</v>
+        <v>685800</v>
       </c>
       <c r="G26" s="3">
-        <v>207200</v>
+        <v>211500</v>
       </c>
       <c r="H26" s="3">
-        <v>513400</v>
+        <v>523900</v>
       </c>
       <c r="I26" s="3">
-        <v>172500</v>
+        <v>176000</v>
       </c>
       <c r="J26" s="3">
-        <v>560900</v>
+        <v>572400</v>
       </c>
       <c r="K26" s="3">
         <v>508400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>331400</v>
+        <v>338200</v>
       </c>
       <c r="E27" s="3">
-        <v>291000</v>
+        <v>297000</v>
       </c>
       <c r="F27" s="3">
-        <v>631300</v>
+        <v>644200</v>
       </c>
       <c r="G27" s="3">
-        <v>184400</v>
+        <v>188200</v>
       </c>
       <c r="H27" s="3">
-        <v>469700</v>
+        <v>479400</v>
       </c>
       <c r="I27" s="3">
-        <v>141800</v>
+        <v>144700</v>
       </c>
       <c r="J27" s="3">
-        <v>518000</v>
+        <v>528600</v>
       </c>
       <c r="K27" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,65 +1395,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>65600</v>
+        <v>66900</v>
       </c>
       <c r="E32" s="3">
-        <v>-220500</v>
+        <v>-225000</v>
       </c>
       <c r="F32" s="3">
-        <v>-123200</v>
+        <v>-125700</v>
       </c>
       <c r="G32" s="3">
-        <v>300300</v>
+        <v>306500</v>
       </c>
       <c r="H32" s="3">
-        <v>178200</v>
+        <v>181800</v>
       </c>
       <c r="I32" s="3">
-        <v>703200</v>
+        <v>717600</v>
       </c>
       <c r="J32" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="K32" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>331400</v>
+        <v>338200</v>
       </c>
       <c r="E33" s="3">
-        <v>291000</v>
+        <v>297000</v>
       </c>
       <c r="F33" s="3">
-        <v>631300</v>
+        <v>644200</v>
       </c>
       <c r="G33" s="3">
-        <v>184400</v>
+        <v>188200</v>
       </c>
       <c r="H33" s="3">
-        <v>469700</v>
+        <v>479400</v>
       </c>
       <c r="I33" s="3">
-        <v>141800</v>
+        <v>144700</v>
       </c>
       <c r="J33" s="3">
-        <v>518000</v>
+        <v>528600</v>
       </c>
       <c r="K33" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,41 +1482,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>331400</v>
+        <v>338200</v>
       </c>
       <c r="E35" s="3">
-        <v>291000</v>
+        <v>297000</v>
       </c>
       <c r="F35" s="3">
-        <v>631300</v>
+        <v>644200</v>
       </c>
       <c r="G35" s="3">
-        <v>184400</v>
+        <v>188200</v>
       </c>
       <c r="H35" s="3">
-        <v>469700</v>
+        <v>479400</v>
       </c>
       <c r="I35" s="3">
-        <v>141800</v>
+        <v>144700</v>
       </c>
       <c r="J35" s="3">
-        <v>518000</v>
+        <v>528600</v>
       </c>
       <c r="K35" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,41 +1571,41 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>457100</v>
+        <v>466500</v>
       </c>
       <c r="E41" s="3">
-        <v>669700</v>
+        <v>683400</v>
       </c>
       <c r="F41" s="3">
-        <v>1245300</v>
+        <v>1270800</v>
       </c>
       <c r="G41" s="3">
-        <v>246500</v>
+        <v>251600</v>
       </c>
       <c r="H41" s="3">
-        <v>1921700</v>
+        <v>1961100</v>
       </c>
       <c r="I41" s="3">
-        <v>1320500</v>
+        <v>1347600</v>
       </c>
       <c r="J41" s="3">
-        <v>121100</v>
+        <v>123600</v>
       </c>
       <c r="K41" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -1594,210 +1629,210 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>330400</v>
+        <v>337200</v>
       </c>
       <c r="E43" s="3">
-        <v>308900</v>
+        <v>315200</v>
       </c>
       <c r="F43" s="3">
-        <v>416900</v>
+        <v>425500</v>
       </c>
       <c r="G43" s="3">
-        <v>386800</v>
+        <v>394800</v>
       </c>
       <c r="H43" s="3">
-        <v>433800</v>
+        <v>442700</v>
       </c>
       <c r="I43" s="3">
-        <v>416900</v>
+        <v>425500</v>
       </c>
       <c r="J43" s="3">
-        <v>599000</v>
+        <v>611300</v>
       </c>
       <c r="K43" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>321400</v>
+        <v>328000</v>
       </c>
       <c r="E44" s="3">
-        <v>317800</v>
+        <v>324300</v>
       </c>
       <c r="F44" s="3">
-        <v>342200</v>
+        <v>349200</v>
       </c>
       <c r="G44" s="3">
-        <v>326900</v>
+        <v>333600</v>
       </c>
       <c r="H44" s="3">
-        <v>317900</v>
+        <v>324400</v>
       </c>
       <c r="I44" s="3">
-        <v>299000</v>
+        <v>305100</v>
       </c>
       <c r="J44" s="3">
-        <v>329300</v>
+        <v>336000</v>
       </c>
       <c r="K44" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1900600</v>
+        <v>1939600</v>
       </c>
       <c r="E45" s="3">
-        <v>1364000</v>
+        <v>1391900</v>
       </c>
       <c r="F45" s="3">
-        <v>1419000</v>
+        <v>1448000</v>
       </c>
       <c r="G45" s="3">
-        <v>1350300</v>
+        <v>1378000</v>
       </c>
       <c r="H45" s="3">
-        <v>1750800</v>
+        <v>1786700</v>
       </c>
       <c r="I45" s="3">
-        <v>1319800</v>
+        <v>1346800</v>
       </c>
       <c r="J45" s="3">
-        <v>1424500</v>
+        <v>1453700</v>
       </c>
       <c r="K45" s="3">
         <v>1565800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3023100</v>
+        <v>3085000</v>
       </c>
       <c r="E46" s="3">
-        <v>2660400</v>
+        <v>2714900</v>
       </c>
       <c r="F46" s="3">
-        <v>3423400</v>
+        <v>3493600</v>
       </c>
       <c r="G46" s="3">
-        <v>2310600</v>
+        <v>2357900</v>
       </c>
       <c r="H46" s="3">
-        <v>4424300</v>
+        <v>4514900</v>
       </c>
       <c r="I46" s="3">
-        <v>3356200</v>
+        <v>3425000</v>
       </c>
       <c r="J46" s="3">
-        <v>2473900</v>
+        <v>2524600</v>
       </c>
       <c r="K46" s="3">
         <v>2653100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>558900</v>
+        <v>570300</v>
       </c>
       <c r="E47" s="3">
-        <v>437900</v>
+        <v>446900</v>
       </c>
       <c r="F47" s="3">
-        <v>428000</v>
+        <v>436800</v>
       </c>
       <c r="G47" s="3">
-        <v>393400</v>
+        <v>401400</v>
       </c>
       <c r="H47" s="3">
-        <v>391100</v>
+        <v>399100</v>
       </c>
       <c r="I47" s="3">
-        <v>365500</v>
+        <v>373000</v>
       </c>
       <c r="J47" s="3">
-        <v>354600</v>
+        <v>361800</v>
       </c>
       <c r="K47" s="3">
         <v>294400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28719200</v>
+        <v>29307700</v>
       </c>
       <c r="E48" s="3">
-        <v>27909500</v>
+        <v>28481400</v>
       </c>
       <c r="F48" s="3">
-        <v>26681200</v>
+        <v>27227900</v>
       </c>
       <c r="G48" s="3">
-        <v>25720500</v>
+        <v>26247500</v>
       </c>
       <c r="H48" s="3">
-        <v>23826800</v>
+        <v>24315000</v>
       </c>
       <c r="I48" s="3">
-        <v>22504300</v>
+        <v>22965400</v>
       </c>
       <c r="J48" s="3">
-        <v>20717100</v>
+        <v>21141600</v>
       </c>
       <c r="K48" s="3">
         <v>18862100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1687300</v>
+        <v>1721900</v>
       </c>
       <c r="E49" s="3">
-        <v>1686400</v>
+        <v>1721000</v>
       </c>
       <c r="F49" s="3">
-        <v>1685800</v>
+        <v>1720400</v>
       </c>
       <c r="G49" s="3">
-        <v>1690500</v>
+        <v>1725100</v>
       </c>
       <c r="H49" s="3">
-        <v>1687100</v>
+        <v>1721700</v>
       </c>
       <c r="I49" s="3">
-        <v>1675600</v>
+        <v>1710000</v>
       </c>
       <c r="J49" s="3">
-        <v>1672600</v>
+        <v>1706900</v>
       </c>
       <c r="K49" s="3">
         <v>1672400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,36 +1890,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>736300</v>
+        <v>751400</v>
       </c>
       <c r="E52" s="3">
-        <v>715100</v>
+        <v>729700</v>
       </c>
       <c r="F52" s="3">
-        <v>643700</v>
+        <v>656900</v>
       </c>
       <c r="G52" s="3">
-        <v>763400</v>
+        <v>779000</v>
       </c>
       <c r="H52" s="3">
-        <v>797100</v>
+        <v>813400</v>
       </c>
       <c r="I52" s="3">
-        <v>892400</v>
+        <v>910600</v>
       </c>
       <c r="J52" s="3">
-        <v>726100</v>
+        <v>741000</v>
       </c>
       <c r="K52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,36 +1948,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34724800</v>
+        <v>35436300</v>
       </c>
       <c r="E54" s="3">
-        <v>33409200</v>
+        <v>34093800</v>
       </c>
       <c r="F54" s="3">
-        <v>32862100</v>
+        <v>33535500</v>
       </c>
       <c r="G54" s="3">
-        <v>30878300</v>
+        <v>31511000</v>
       </c>
       <c r="H54" s="3">
-        <v>31126400</v>
+        <v>31764200</v>
       </c>
       <c r="I54" s="3">
-        <v>28794000</v>
+        <v>29384000</v>
       </c>
       <c r="J54" s="3">
-        <v>25944300</v>
+        <v>26475900</v>
       </c>
       <c r="K54" s="3">
         <v>24116500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,181 +2003,181 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>381500</v>
+        <v>389300</v>
       </c>
       <c r="E57" s="3">
-        <v>463000</v>
+        <v>472500</v>
       </c>
       <c r="F57" s="3">
-        <v>453600</v>
+        <v>462900</v>
       </c>
       <c r="G57" s="3">
-        <v>491000</v>
+        <v>501000</v>
       </c>
       <c r="H57" s="3">
-        <v>349500</v>
+        <v>356600</v>
       </c>
       <c r="I57" s="3">
-        <v>539800</v>
+        <v>550900</v>
       </c>
       <c r="J57" s="3">
-        <v>474800</v>
+        <v>484600</v>
       </c>
       <c r="K57" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6042800</v>
+        <v>6166600</v>
       </c>
       <c r="E58" s="3">
-        <v>7028800</v>
+        <v>7172800</v>
       </c>
       <c r="F58" s="3">
-        <v>6878700</v>
+        <v>7019600</v>
       </c>
       <c r="G58" s="3">
-        <v>5132100</v>
+        <v>5237200</v>
       </c>
       <c r="H58" s="3">
-        <v>8396800</v>
+        <v>8568900</v>
       </c>
       <c r="I58" s="3">
-        <v>6445900</v>
+        <v>6578000</v>
       </c>
       <c r="J58" s="3">
-        <v>4994900</v>
+        <v>5097300</v>
       </c>
       <c r="K58" s="3">
         <v>4838700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4619000</v>
+        <v>4713700</v>
       </c>
       <c r="E59" s="3">
-        <v>4190300</v>
+        <v>4276100</v>
       </c>
       <c r="F59" s="3">
-        <v>3898300</v>
+        <v>3978100</v>
       </c>
       <c r="G59" s="3">
-        <v>4278100</v>
+        <v>4365800</v>
       </c>
       <c r="H59" s="3">
-        <v>3947600</v>
+        <v>4028400</v>
       </c>
       <c r="I59" s="3">
-        <v>3832400</v>
+        <v>3910900</v>
       </c>
       <c r="J59" s="3">
-        <v>3908000</v>
+        <v>3988100</v>
       </c>
       <c r="K59" s="3">
         <v>3748500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11043200</v>
+        <v>11269500</v>
       </c>
       <c r="E60" s="3">
-        <v>11682100</v>
+        <v>11921500</v>
       </c>
       <c r="F60" s="3">
-        <v>11230500</v>
+        <v>11460700</v>
       </c>
       <c r="G60" s="3">
-        <v>9901200</v>
+        <v>10104000</v>
       </c>
       <c r="H60" s="3">
-        <v>12693900</v>
+        <v>12954000</v>
       </c>
       <c r="I60" s="3">
-        <v>10818100</v>
+        <v>11039800</v>
       </c>
       <c r="J60" s="3">
-        <v>9377800</v>
+        <v>9569900</v>
       </c>
       <c r="K60" s="3">
         <v>8890100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13394700</v>
+        <v>13669200</v>
       </c>
       <c r="E61" s="3">
-        <v>11974400</v>
+        <v>12219800</v>
       </c>
       <c r="F61" s="3">
-        <v>12091100</v>
+        <v>12338800</v>
       </c>
       <c r="G61" s="3">
-        <v>11995600</v>
+        <v>12241500</v>
       </c>
       <c r="H61" s="3">
-        <v>9586500</v>
+        <v>9782900</v>
       </c>
       <c r="I61" s="3">
-        <v>10876400</v>
+        <v>11099300</v>
       </c>
       <c r="J61" s="3">
-        <v>10193500</v>
+        <v>10402400</v>
       </c>
       <c r="K61" s="3">
         <v>9396500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1338000</v>
+        <v>1365400</v>
       </c>
       <c r="E62" s="3">
-        <v>1204600</v>
+        <v>1229300</v>
       </c>
       <c r="F62" s="3">
-        <v>1221500</v>
+        <v>1246500</v>
       </c>
       <c r="G62" s="3">
-        <v>1365900</v>
+        <v>1393900</v>
       </c>
       <c r="H62" s="3">
-        <v>1309300</v>
+        <v>1336100</v>
       </c>
       <c r="I62" s="3">
-        <v>1292300</v>
+        <v>1318800</v>
       </c>
       <c r="J62" s="3">
-        <v>1196600</v>
+        <v>1221100</v>
       </c>
       <c r="K62" s="3">
         <v>1209400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,36 +2264,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26305800</v>
+        <v>26844800</v>
       </c>
       <c r="E66" s="3">
-        <v>25358200</v>
+        <v>25877800</v>
       </c>
       <c r="F66" s="3">
-        <v>25018200</v>
+        <v>25530800</v>
       </c>
       <c r="G66" s="3">
-        <v>23686800</v>
+        <v>24172100</v>
       </c>
       <c r="H66" s="3">
-        <v>23991900</v>
+        <v>24483500</v>
       </c>
       <c r="I66" s="3">
-        <v>23353300</v>
+        <v>23831800</v>
       </c>
       <c r="J66" s="3">
-        <v>21067100</v>
+        <v>21498800</v>
       </c>
       <c r="K66" s="3">
         <v>19757400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,36 +2422,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6315000</v>
+        <v>6444400</v>
       </c>
       <c r="E72" s="3">
-        <v>5947100</v>
+        <v>6068900</v>
       </c>
       <c r="F72" s="3">
-        <v>5740000</v>
+        <v>5857600</v>
       </c>
       <c r="G72" s="3">
-        <v>5087600</v>
+        <v>5191800</v>
       </c>
       <c r="H72" s="3">
-        <v>5030600</v>
+        <v>5133700</v>
       </c>
       <c r="I72" s="3">
-        <v>3529700</v>
+        <v>3602100</v>
       </c>
       <c r="J72" s="3">
-        <v>3034000</v>
+        <v>3096100</v>
       </c>
       <c r="K72" s="3">
         <v>-411400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,36 +2538,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8418900</v>
+        <v>8591500</v>
       </c>
       <c r="E76" s="3">
-        <v>8051000</v>
+        <v>8216000</v>
       </c>
       <c r="F76" s="3">
-        <v>7843900</v>
+        <v>8004600</v>
       </c>
       <c r="G76" s="3">
-        <v>7191500</v>
+        <v>7338900</v>
       </c>
       <c r="H76" s="3">
-        <v>7134500</v>
+        <v>7280700</v>
       </c>
       <c r="I76" s="3">
-        <v>5440700</v>
+        <v>5552200</v>
       </c>
       <c r="J76" s="3">
-        <v>4877100</v>
+        <v>4977100</v>
       </c>
       <c r="K76" s="3">
         <v>4359100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,36 +2630,36 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>331400</v>
+        <v>338200</v>
       </c>
       <c r="E81" s="3">
-        <v>291000</v>
+        <v>297000</v>
       </c>
       <c r="F81" s="3">
-        <v>631300</v>
+        <v>644200</v>
       </c>
       <c r="G81" s="3">
-        <v>184400</v>
+        <v>188200</v>
       </c>
       <c r="H81" s="3">
-        <v>469700</v>
+        <v>479400</v>
       </c>
       <c r="I81" s="3">
-        <v>141800</v>
+        <v>144700</v>
       </c>
       <c r="J81" s="3">
-        <v>518000</v>
+        <v>528600</v>
       </c>
       <c r="K81" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,36 +2672,36 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1060800</v>
+        <v>1082500</v>
       </c>
       <c r="E83" s="3">
-        <v>1076600</v>
+        <v>1098700</v>
       </c>
       <c r="F83" s="3">
-        <v>948300</v>
+        <v>967800</v>
       </c>
       <c r="G83" s="3">
-        <v>976100</v>
+        <v>996100</v>
       </c>
       <c r="H83" s="3">
-        <v>839600</v>
+        <v>856800</v>
       </c>
       <c r="I83" s="3">
-        <v>841700</v>
+        <v>859000</v>
       </c>
       <c r="J83" s="3">
-        <v>728700</v>
+        <v>743700</v>
       </c>
       <c r="K83" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,36 +2846,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1546900</v>
+        <v>1578600</v>
       </c>
       <c r="E89" s="3">
-        <v>1788800</v>
+        <v>1825400</v>
       </c>
       <c r="F89" s="3">
-        <v>1057600</v>
+        <v>1079200</v>
       </c>
       <c r="G89" s="3">
-        <v>2088100</v>
+        <v>2130900</v>
       </c>
       <c r="H89" s="3">
-        <v>1532100</v>
+        <v>1563500</v>
       </c>
       <c r="I89" s="3">
-        <v>2048200</v>
+        <v>2090200</v>
       </c>
       <c r="J89" s="3">
-        <v>1489300</v>
+        <v>1519900</v>
       </c>
       <c r="K89" s="3">
         <v>1023000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,36 +2888,36 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-641600</v>
+        <v>-642000</v>
       </c>
       <c r="E91" s="3">
-        <v>-368100</v>
+        <v>-364300</v>
       </c>
       <c r="F91" s="3">
-        <v>-784000</v>
+        <v>-792700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2620800</v>
+        <v>-2661100</v>
       </c>
       <c r="H91" s="3">
-        <v>-544500</v>
+        <v>-534600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1214200</v>
+        <v>-1222900</v>
       </c>
       <c r="J91" s="3">
-        <v>-53700</v>
+        <v>-54800</v>
       </c>
       <c r="K91" s="3">
         <v>-787400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,36 +2975,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1441100</v>
+        <v>-1470600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1520300</v>
+        <v>-1551500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1579100</v>
+        <v>-1611400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3026100</v>
+        <v>-3088100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2381000</v>
+        <v>-2429800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2384800</v>
+        <v>-2433600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1658200</v>
+        <v>-1692200</v>
       </c>
       <c r="K94" s="3">
         <v>-2287500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,7 +3017,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,88 +3133,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-327900</v>
+        <v>-334700</v>
       </c>
       <c r="E100" s="3">
-        <v>-834800</v>
+        <v>-851900</v>
       </c>
       <c r="F100" s="3">
-        <v>1519500</v>
+        <v>1550600</v>
       </c>
       <c r="G100" s="3">
-        <v>-763100</v>
+        <v>-778700</v>
       </c>
       <c r="H100" s="3">
-        <v>1437000</v>
+        <v>1466400</v>
       </c>
       <c r="I100" s="3">
-        <v>1510700</v>
+        <v>1541700</v>
       </c>
       <c r="J100" s="3">
-        <v>101100</v>
+        <v>103100</v>
       </c>
       <c r="K100" s="3">
         <v>1009900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="F101" s="3">
         <v>900</v>
       </c>
       <c r="G101" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="H101" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="I101" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="J101" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="K101" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-214800</v>
+        <v>-219200</v>
       </c>
       <c r="E102" s="3">
-        <v>-574000</v>
+        <v>-585800</v>
       </c>
       <c r="F102" s="3">
-        <v>998800</v>
+        <v>1019300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1675200</v>
+        <v>-1709500</v>
       </c>
       <c r="H102" s="3">
-        <v>601200</v>
+        <v>613500</v>
       </c>
       <c r="I102" s="3">
-        <v>1199400</v>
+        <v>1223900</v>
       </c>
       <c r="J102" s="3">
-        <v>-75900</v>
+        <v>-77500</v>
       </c>
       <c r="K102" s="3">
         <v>-261300</v>

--- a/Financials/Quarterly/CEA_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CEA_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D32B9-F89C-4135-B420-C110B06F49C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CEA" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CEA</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8088300</v>
+        <v>8445100</v>
       </c>
       <c r="E8" s="3">
-        <v>8021900</v>
+        <v>8720400</v>
       </c>
       <c r="F8" s="3">
-        <v>7186500</v>
+        <v>7819700</v>
       </c>
       <c r="G8" s="3">
-        <v>7801800</v>
+        <v>7755400</v>
       </c>
       <c r="H8" s="3">
-        <v>6876600</v>
+        <v>6947700</v>
       </c>
       <c r="I8" s="3">
+        <v>7542600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6648100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7360800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6585100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6848400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5512700</v>
+        <v>5838500</v>
       </c>
       <c r="E9" s="3">
-        <v>5547300</v>
+        <v>6248400</v>
       </c>
       <c r="F9" s="3">
-        <v>4899200</v>
+        <v>5329600</v>
       </c>
       <c r="G9" s="3">
-        <v>5050400</v>
+        <v>5363000</v>
       </c>
       <c r="H9" s="3">
-        <v>4289000</v>
+        <v>4736400</v>
       </c>
       <c r="I9" s="3">
+        <v>4882600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4146600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4563900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4322000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4455800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2575700</v>
+        <v>2606600</v>
       </c>
       <c r="E10" s="3">
-        <v>2474600</v>
+        <v>2472000</v>
       </c>
       <c r="F10" s="3">
-        <v>2287300</v>
+        <v>2490100</v>
       </c>
       <c r="G10" s="3">
-        <v>2751400</v>
+        <v>2392400</v>
       </c>
       <c r="H10" s="3">
-        <v>2587500</v>
+        <v>2211300</v>
       </c>
       <c r="I10" s="3">
+        <v>2660000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2501600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2796900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2263100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2392600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +840,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +871,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,66 +906,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-8800</v>
       </c>
       <c r="E14" s="3">
-        <v>-700</v>
+        <v>47900</v>
       </c>
       <c r="F14" s="3">
-        <v>-262100</v>
+        <v>900</v>
       </c>
       <c r="G14" s="3">
-        <v>-1800</v>
+        <v>69200</v>
       </c>
       <c r="H14" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>-252100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1118100</v>
+        <v>1552200</v>
       </c>
       <c r="E15" s="3">
-        <v>1101500</v>
+        <v>1116100</v>
       </c>
       <c r="F15" s="3">
-        <v>971600</v>
+        <v>1081000</v>
       </c>
       <c r="G15" s="3">
-        <v>942800</v>
+        <v>1064900</v>
       </c>
       <c r="H15" s="3">
-        <v>860900</v>
+        <v>939400</v>
       </c>
       <c r="I15" s="3">
+        <v>911500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>832300</v>
+      </c>
+      <c r="K15" s="3">
         <v>810300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>743700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>688500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7280100</v>
+        <v>7705300</v>
       </c>
       <c r="E17" s="3">
-        <v>7561600</v>
+        <v>8166200</v>
       </c>
       <c r="F17" s="3">
-        <v>6247000</v>
+        <v>7038300</v>
       </c>
       <c r="G17" s="3">
-        <v>7011000</v>
+        <v>7310400</v>
       </c>
       <c r="H17" s="3">
-        <v>5814300</v>
+        <v>6039500</v>
       </c>
       <c r="I17" s="3">
+        <v>6778100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5621100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6337000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5735300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6200400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>808200</v>
+        <v>739800</v>
       </c>
       <c r="E18" s="3">
-        <v>460200</v>
+        <v>554300</v>
       </c>
       <c r="F18" s="3">
-        <v>939400</v>
+        <v>781400</v>
       </c>
       <c r="G18" s="3">
-        <v>790700</v>
+        <v>444900</v>
       </c>
       <c r="H18" s="3">
-        <v>1062300</v>
+        <v>908200</v>
       </c>
       <c r="I18" s="3">
+        <v>764500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1023900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>849800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>648000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1046,153 +1077,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-66900</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>225000</v>
+        <v>-204600</v>
       </c>
       <c r="F20" s="3">
-        <v>125700</v>
+        <v>-64700</v>
       </c>
       <c r="G20" s="3">
-        <v>-306500</v>
+        <v>217500</v>
       </c>
       <c r="H20" s="3">
-        <v>-181800</v>
+        <v>121500</v>
       </c>
       <c r="I20" s="3">
+        <v>-296300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-175800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-717600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>18100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1823800</v>
+        <v>2257900</v>
       </c>
       <c r="E21" s="3">
-        <v>1783900</v>
+        <v>1494100</v>
       </c>
       <c r="F21" s="3">
-        <v>2032900</v>
+        <v>1763200</v>
       </c>
       <c r="G21" s="3">
-        <v>1480400</v>
+        <v>1724600</v>
       </c>
       <c r="H21" s="3">
-        <v>1737300</v>
+        <v>1965400</v>
       </c>
       <c r="I21" s="3">
+        <v>1431200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1679600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1165300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1611600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1319600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>271300</v>
+        <v>357100</v>
       </c>
       <c r="E22" s="3">
-        <v>264200</v>
+        <v>250800</v>
       </c>
       <c r="F22" s="3">
-        <v>208400</v>
+        <v>262300</v>
       </c>
       <c r="G22" s="3">
-        <v>198400</v>
+        <v>255400</v>
       </c>
       <c r="H22" s="3">
-        <v>202100</v>
+        <v>201400</v>
       </c>
       <c r="I22" s="3">
+        <v>191800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>195400</v>
+      </c>
+      <c r="K22" s="3">
         <v>161000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>172200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>470000</v>
+        <v>388500</v>
       </c>
       <c r="E23" s="3">
-        <v>421000</v>
+        <v>98900</v>
       </c>
       <c r="F23" s="3">
-        <v>856800</v>
+        <v>454400</v>
       </c>
       <c r="G23" s="3">
-        <v>285800</v>
+        <v>407100</v>
       </c>
       <c r="H23" s="3">
-        <v>678400</v>
+        <v>828300</v>
       </c>
       <c r="I23" s="3">
+        <v>276300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>655800</v>
+      </c>
+      <c r="K23" s="3">
         <v>145300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>695700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>568600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98700</v>
+        <v>82600</v>
       </c>
       <c r="E24" s="3">
-        <v>96200</v>
+        <v>37400</v>
       </c>
       <c r="F24" s="3">
-        <v>171000</v>
+        <v>95400</v>
       </c>
       <c r="G24" s="3">
-        <v>74400</v>
+        <v>93000</v>
       </c>
       <c r="H24" s="3">
-        <v>154500</v>
+        <v>165300</v>
       </c>
       <c r="I24" s="3">
+        <v>71900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>149400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-30700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>123300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>371300</v>
+        <v>305900</v>
       </c>
       <c r="E26" s="3">
-        <v>324900</v>
+        <v>61400</v>
       </c>
       <c r="F26" s="3">
-        <v>685800</v>
+        <v>359000</v>
       </c>
       <c r="G26" s="3">
-        <v>211500</v>
+        <v>314100</v>
       </c>
       <c r="H26" s="3">
-        <v>523900</v>
+        <v>663000</v>
       </c>
       <c r="I26" s="3">
+        <v>204500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>506500</v>
+      </c>
+      <c r="K26" s="3">
         <v>176000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>572400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>508400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>338200</v>
+        <v>278500</v>
       </c>
       <c r="E27" s="3">
-        <v>297000</v>
+        <v>60100</v>
       </c>
       <c r="F27" s="3">
-        <v>644200</v>
+        <v>327000</v>
       </c>
       <c r="G27" s="3">
-        <v>188200</v>
+        <v>287100</v>
       </c>
       <c r="H27" s="3">
-        <v>479400</v>
+        <v>622800</v>
       </c>
       <c r="I27" s="3">
+        <v>181900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K27" s="3">
         <v>144700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>528600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1388,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,8 +1423,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,66 +1493,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>66900</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-225000</v>
+        <v>204600</v>
       </c>
       <c r="F32" s="3">
-        <v>-125700</v>
+        <v>64700</v>
       </c>
       <c r="G32" s="3">
-        <v>306500</v>
+        <v>-217500</v>
       </c>
       <c r="H32" s="3">
-        <v>181800</v>
+        <v>-121500</v>
       </c>
       <c r="I32" s="3">
+        <v>296300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K32" s="3">
         <v>717600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-18100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>338200</v>
+        <v>278500</v>
       </c>
       <c r="E33" s="3">
-        <v>297000</v>
+        <v>60100</v>
       </c>
       <c r="F33" s="3">
-        <v>644200</v>
+        <v>327000</v>
       </c>
       <c r="G33" s="3">
-        <v>188200</v>
+        <v>287100</v>
       </c>
       <c r="H33" s="3">
-        <v>479400</v>
+        <v>622800</v>
       </c>
       <c r="I33" s="3">
+        <v>181900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K33" s="3">
         <v>144700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>528600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>338200</v>
+        <v>278500</v>
       </c>
       <c r="E35" s="3">
-        <v>297000</v>
+        <v>60100</v>
       </c>
       <c r="F35" s="3">
-        <v>644200</v>
+        <v>327000</v>
       </c>
       <c r="G35" s="3">
-        <v>188200</v>
+        <v>287100</v>
       </c>
       <c r="H35" s="3">
-        <v>479400</v>
+        <v>622800</v>
       </c>
       <c r="I35" s="3">
+        <v>181900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K35" s="3">
         <v>144700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>528600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,48 +1707,56 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>466500</v>
+        <v>136400</v>
       </c>
       <c r="E41" s="3">
-        <v>683400</v>
+        <v>92700</v>
       </c>
       <c r="F41" s="3">
-        <v>1270800</v>
+        <v>451000</v>
       </c>
       <c r="G41" s="3">
-        <v>251600</v>
+        <v>660700</v>
       </c>
       <c r="H41" s="3">
-        <v>1961100</v>
+        <v>1228600</v>
       </c>
       <c r="I41" s="3">
+        <v>243200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1895900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1347600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>123600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E42" s="3">
         <v>13800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>13300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1628,211 +1773,259 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>337200</v>
+        <v>315200</v>
       </c>
       <c r="E43" s="3">
-        <v>315200</v>
+        <v>206000</v>
       </c>
       <c r="F43" s="3">
+        <v>326000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>304800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>411400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>381700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K43" s="3">
         <v>425500</v>
       </c>
-      <c r="G43" s="3">
-        <v>394800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>442700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>425500</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>611300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>328000</v>
+        <v>309900</v>
       </c>
       <c r="E44" s="3">
-        <v>324300</v>
+        <v>279800</v>
       </c>
       <c r="F44" s="3">
-        <v>349200</v>
+        <v>317100</v>
       </c>
       <c r="G44" s="3">
-        <v>333600</v>
+        <v>313500</v>
       </c>
       <c r="H44" s="3">
-        <v>324400</v>
+        <v>337600</v>
       </c>
       <c r="I44" s="3">
+        <v>322500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K44" s="3">
         <v>305100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>336000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1939600</v>
+        <v>1824300</v>
       </c>
       <c r="E45" s="3">
-        <v>1391900</v>
+        <v>1693600</v>
       </c>
       <c r="F45" s="3">
-        <v>1448000</v>
+        <v>1875100</v>
       </c>
       <c r="G45" s="3">
-        <v>1378000</v>
+        <v>1345700</v>
       </c>
       <c r="H45" s="3">
-        <v>1786700</v>
+        <v>1399900</v>
       </c>
       <c r="I45" s="3">
+        <v>1332200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1727400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1346800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1453700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1565800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3085000</v>
+        <v>2602300</v>
       </c>
       <c r="E46" s="3">
-        <v>2714900</v>
+        <v>2285900</v>
       </c>
       <c r="F46" s="3">
-        <v>3493600</v>
+        <v>2982500</v>
       </c>
       <c r="G46" s="3">
-        <v>2357900</v>
+        <v>2624700</v>
       </c>
       <c r="H46" s="3">
-        <v>4514900</v>
+        <v>3377500</v>
       </c>
       <c r="I46" s="3">
+        <v>2279600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4364900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3425000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2524600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2653100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>570300</v>
+        <v>558700</v>
       </c>
       <c r="E47" s="3">
-        <v>446900</v>
+        <v>505000</v>
       </c>
       <c r="F47" s="3">
-        <v>436800</v>
+        <v>551400</v>
       </c>
       <c r="G47" s="3">
-        <v>401400</v>
+        <v>432000</v>
       </c>
       <c r="H47" s="3">
-        <v>399100</v>
+        <v>422300</v>
       </c>
       <c r="I47" s="3">
+        <v>388100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>385800</v>
+      </c>
+      <c r="K47" s="3">
         <v>373000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>361800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>294400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29307700</v>
+        <v>35104700</v>
       </c>
       <c r="E48" s="3">
-        <v>28481400</v>
+        <v>29093400</v>
       </c>
       <c r="F48" s="3">
-        <v>27227900</v>
+        <v>28334100</v>
       </c>
       <c r="G48" s="3">
-        <v>26247500</v>
+        <v>27535200</v>
       </c>
       <c r="H48" s="3">
-        <v>24315000</v>
+        <v>26323400</v>
       </c>
       <c r="I48" s="3">
+        <v>25375600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>23507300</v>
+      </c>
+      <c r="K48" s="3">
         <v>22965400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21141600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18862100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1721900</v>
+        <v>1668100</v>
       </c>
       <c r="E49" s="3">
-        <v>1721000</v>
+        <v>1665700</v>
       </c>
       <c r="F49" s="3">
-        <v>1720400</v>
+        <v>1664700</v>
       </c>
       <c r="G49" s="3">
-        <v>1725100</v>
+        <v>1663800</v>
       </c>
       <c r="H49" s="3">
-        <v>1721700</v>
+        <v>1663200</v>
       </c>
       <c r="I49" s="3">
+        <v>1667800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1664500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1710000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1706900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1672400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>751400</v>
+        <v>550400</v>
       </c>
       <c r="E52" s="3">
-        <v>729700</v>
+        <v>744100</v>
       </c>
       <c r="F52" s="3">
-        <v>656900</v>
+        <v>726400</v>
       </c>
       <c r="G52" s="3">
-        <v>779000</v>
+        <v>705500</v>
       </c>
       <c r="H52" s="3">
-        <v>813400</v>
+        <v>635000</v>
       </c>
       <c r="I52" s="3">
+        <v>753100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>786400</v>
+      </c>
+      <c r="K52" s="3">
         <v>910600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>741000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>634500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35436300</v>
+        <v>40484200</v>
       </c>
       <c r="E54" s="3">
-        <v>34093800</v>
+        <v>34294200</v>
       </c>
       <c r="F54" s="3">
-        <v>33535500</v>
+        <v>34259200</v>
       </c>
       <c r="G54" s="3">
-        <v>31511000</v>
+        <v>32961200</v>
       </c>
       <c r="H54" s="3">
-        <v>31764200</v>
+        <v>32421500</v>
       </c>
       <c r="I54" s="3">
+        <v>30464200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>30709000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29384000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26475900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24116500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,182 +2227,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>389300</v>
+        <v>410400</v>
       </c>
       <c r="E57" s="3">
-        <v>472500</v>
+        <v>579700</v>
       </c>
       <c r="F57" s="3">
-        <v>462900</v>
+        <v>376300</v>
       </c>
       <c r="G57" s="3">
-        <v>501000</v>
+        <v>456800</v>
       </c>
       <c r="H57" s="3">
-        <v>356600</v>
+        <v>447500</v>
       </c>
       <c r="I57" s="3">
+        <v>484400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>344800</v>
+      </c>
+      <c r="K57" s="3">
         <v>550900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>484600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6166600</v>
+        <v>6791800</v>
       </c>
       <c r="E58" s="3">
-        <v>7172800</v>
+        <v>5541600</v>
       </c>
       <c r="F58" s="3">
-        <v>7019600</v>
+        <v>5961700</v>
       </c>
       <c r="G58" s="3">
-        <v>5237200</v>
+        <v>6934500</v>
       </c>
       <c r="H58" s="3">
-        <v>8568900</v>
+        <v>6786500</v>
       </c>
       <c r="I58" s="3">
+        <v>5063300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8284200</v>
+      </c>
+      <c r="K58" s="3">
         <v>6578000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5097300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4838700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4713700</v>
+        <v>4509300</v>
       </c>
       <c r="E59" s="3">
-        <v>4276100</v>
+        <v>4361900</v>
       </c>
       <c r="F59" s="3">
-        <v>3978100</v>
+        <v>4557100</v>
       </c>
       <c r="G59" s="3">
-        <v>4365800</v>
+        <v>4134100</v>
       </c>
       <c r="H59" s="3">
-        <v>4028400</v>
+        <v>3846000</v>
       </c>
       <c r="I59" s="3">
+        <v>4220800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3894600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3910900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3988100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3748500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11269500</v>
+        <v>11711400</v>
       </c>
       <c r="E60" s="3">
-        <v>11921500</v>
+        <v>10483200</v>
       </c>
       <c r="F60" s="3">
-        <v>11460700</v>
+        <v>10895200</v>
       </c>
       <c r="G60" s="3">
-        <v>10104000</v>
+        <v>11525500</v>
       </c>
       <c r="H60" s="3">
-        <v>12954000</v>
+        <v>11080000</v>
       </c>
       <c r="I60" s="3">
+        <v>9768400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>12523700</v>
+      </c>
+      <c r="K60" s="3">
         <v>11039800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9569900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8890100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13669200</v>
+        <v>17669000</v>
       </c>
       <c r="E61" s="3">
-        <v>12219800</v>
+        <v>13477100</v>
       </c>
       <c r="F61" s="3">
-        <v>12338800</v>
+        <v>13215100</v>
       </c>
       <c r="G61" s="3">
-        <v>12241500</v>
+        <v>11813900</v>
       </c>
       <c r="H61" s="3">
-        <v>9782900</v>
+        <v>11928900</v>
       </c>
       <c r="I61" s="3">
+        <v>11834800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9457900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11099300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10402400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9396500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1365400</v>
+        <v>2238300</v>
       </c>
       <c r="E62" s="3">
-        <v>1229300</v>
+        <v>1495300</v>
       </c>
       <c r="F62" s="3">
-        <v>1246500</v>
+        <v>1320000</v>
       </c>
       <c r="G62" s="3">
-        <v>1393900</v>
+        <v>1188400</v>
       </c>
       <c r="H62" s="3">
-        <v>1336100</v>
+        <v>1205100</v>
       </c>
       <c r="I62" s="3">
+        <v>1347600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1291800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1318800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1221100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1209400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26844800</v>
+        <v>32125700</v>
       </c>
       <c r="E66" s="3">
-        <v>25877800</v>
+        <v>25971200</v>
       </c>
       <c r="F66" s="3">
-        <v>25530800</v>
+        <v>25953100</v>
       </c>
       <c r="G66" s="3">
-        <v>24172100</v>
+        <v>25018200</v>
       </c>
       <c r="H66" s="3">
-        <v>24483500</v>
+        <v>24682700</v>
       </c>
       <c r="I66" s="3">
+        <v>23369200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>23670200</v>
+      </c>
+      <c r="K66" s="3">
         <v>23831800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21498800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19757400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6444400</v>
+        <v>6282700</v>
       </c>
       <c r="E72" s="3">
-        <v>6068900</v>
+        <v>6247300</v>
       </c>
       <c r="F72" s="3">
-        <v>5857600</v>
+        <v>6230300</v>
       </c>
       <c r="G72" s="3">
-        <v>5191800</v>
+        <v>5867300</v>
       </c>
       <c r="H72" s="3">
-        <v>5133700</v>
+        <v>5663000</v>
       </c>
       <c r="I72" s="3">
+        <v>5019400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4963100</v>
+      </c>
+      <c r="K72" s="3">
         <v>3602100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3096100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-411400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8591500</v>
+        <v>8358400</v>
       </c>
       <c r="E76" s="3">
-        <v>8216000</v>
+        <v>8323000</v>
       </c>
       <c r="F76" s="3">
-        <v>8004600</v>
+        <v>8306100</v>
       </c>
       <c r="G76" s="3">
-        <v>7338900</v>
+        <v>7943100</v>
       </c>
       <c r="H76" s="3">
-        <v>7280700</v>
+        <v>7738700</v>
       </c>
       <c r="I76" s="3">
+        <v>7095100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7038800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5552200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4977100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4359100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>338200</v>
+        <v>278500</v>
       </c>
       <c r="E81" s="3">
-        <v>297000</v>
+        <v>60100</v>
       </c>
       <c r="F81" s="3">
-        <v>644200</v>
+        <v>327000</v>
       </c>
       <c r="G81" s="3">
-        <v>188200</v>
+        <v>287100</v>
       </c>
       <c r="H81" s="3">
-        <v>479400</v>
+        <v>622800</v>
       </c>
       <c r="I81" s="3">
+        <v>181900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K81" s="3">
         <v>144700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>528600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>494200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,37 +3032,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1082500</v>
+        <v>1512300</v>
       </c>
       <c r="E83" s="3">
-        <v>1098700</v>
+        <v>1144400</v>
       </c>
       <c r="F83" s="3">
-        <v>967800</v>
+        <v>1046500</v>
       </c>
       <c r="G83" s="3">
-        <v>996100</v>
+        <v>1062200</v>
       </c>
       <c r="H83" s="3">
-        <v>856800</v>
+        <v>935600</v>
       </c>
       <c r="I83" s="3">
+        <v>963000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>828300</v>
+      </c>
+      <c r="K83" s="3">
         <v>859000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>743700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1578600</v>
+        <v>1829500</v>
       </c>
       <c r="E89" s="3">
-        <v>1825400</v>
+        <v>1678900</v>
       </c>
       <c r="F89" s="3">
-        <v>1079200</v>
+        <v>1526200</v>
       </c>
       <c r="G89" s="3">
-        <v>2130900</v>
+        <v>1764800</v>
       </c>
       <c r="H89" s="3">
-        <v>1563500</v>
+        <v>1043400</v>
       </c>
       <c r="I89" s="3">
+        <v>2060100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1511600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2090200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1519900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1023000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,37 +3292,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-642000</v>
+        <v>-345200</v>
       </c>
       <c r="E91" s="3">
-        <v>-364300</v>
+        <v>-907800</v>
       </c>
       <c r="F91" s="3">
-        <v>-792700</v>
+        <v>-620700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2661100</v>
+        <v>-352200</v>
       </c>
       <c r="H91" s="3">
-        <v>-534600</v>
+        <v>-766300</v>
       </c>
       <c r="I91" s="3">
+        <v>-2572700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-516800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1222900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-54800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-787400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1470600</v>
+        <v>-1068600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1551500</v>
+        <v>-411900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1611400</v>
+        <v>-1421700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3088100</v>
+        <v>-1499900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2429800</v>
+        <v>-1557900</v>
       </c>
       <c r="I94" s="3">
+        <v>-2985500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2349100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2433600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1692200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2287500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,8 +3447,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3045,8 +3478,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,91 +3583,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-334700</v>
+        <v>-717300</v>
       </c>
       <c r="E100" s="3">
-        <v>-851900</v>
+        <v>-1621800</v>
       </c>
       <c r="F100" s="3">
-        <v>1550600</v>
+        <v>-323500</v>
       </c>
       <c r="G100" s="3">
-        <v>-778700</v>
+        <v>-823600</v>
       </c>
       <c r="H100" s="3">
-        <v>1466400</v>
+        <v>1499100</v>
       </c>
       <c r="I100" s="3">
+        <v>-752800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1417700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1541700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>103100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1009900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7400</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-7900</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
-        <v>26400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>13400</v>
-      </c>
       <c r="I101" s="3">
+        <v>25500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K101" s="3">
         <v>25700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-8300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-219200</v>
+        <v>43800</v>
       </c>
       <c r="E102" s="3">
-        <v>-585800</v>
+        <v>-357700</v>
       </c>
       <c r="F102" s="3">
-        <v>1019300</v>
+        <v>-211900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1709500</v>
+        <v>-566300</v>
       </c>
       <c r="H102" s="3">
-        <v>613500</v>
+        <v>985400</v>
       </c>
       <c r="I102" s="3">
+        <v>-1652700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>593100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1223900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-77500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-261300</v>
       </c>
     </row>
